--- a/biology/Botanique/Parc_Léopold_(Bruxelles)/Parc_Léopold_(Bruxelles).xlsx
+++ b/biology/Botanique/Parc_Léopold_(Bruxelles)/Parc_Léopold_(Bruxelles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9opold_(Bruxelles)</t>
+          <t>Parc_Léopold_(Bruxelles)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Léopold (en néerlandais Leopoldpark) est un site bruxellois constitué d'un espace public et de bâtiments historiques. Il est situé dans la vallée du Maelbeek, en bordure de la commune d’Etterbeek, au pied du quartier européen et du Muséum des sciences naturelles de Belgique. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_L%C3%A9opold_(Bruxelles)</t>
+          <t>Parc_Léopold_(Bruxelles)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’endroit témoigne de l'existence d’un ancien domaine médiéval : caché au milieu des arbres, on découvre la tour Eggevoort, le reliquat d'un château du XVe siècle.
 L’histoire du parc débute en 1851, année où le lieu est concédé à la Société royale de Zoologie, d’Horticulture et d’Agrément qui y crée un parc zoologique et d’attractions destiné aux plaisirs mondains de l’époque. Durant vingt-cinq ans, s’y déroulent fêtes et concerts champêtres dans un jardin à l’anglaise, au côté d'une patinoire, d'animaux exotiques, de serres horticoles et d'autres curiosités. Le botaniste Jean Jules Linden gère le côté horticole des installations. En 1854 le futur architecte de la Cour de Léopold II, Alphonse Balat, conçoit une petite serre pour y héberger la Victoria amazonica, nénuphar géant d'Amazonie. Déménagée une première fois vers le Jardin botanique de Bruxelles, elle trouvera son emplacement définitif au Jardin botanique de Meise en 1941. Conscient que la Société de Zoologie gère mal le parc, Linden rachète la partie sur laquelle se trouvent ses serres. Il y cultive des plantes rares, notamment des orchidées, qu'il propose à la vente. Après son décès, les serres seront vendues à la ville de Bruxelles en 1908. Un buste de Jean Jules Linden trône à l'emplacement de l'ancienne serre de la Victoria amazonica.
